--- a/data/long_bre/P23_9-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_9-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>-5,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,48%</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,41%</t>
+          <t>-19,53%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-17,2%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29,41%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 2,39</t>
+          <t>-13,49; 0,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 1,67</t>
+          <t>-13,14; 0,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 9,86</t>
+          <t>1,67; 16,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 5,68</t>
+          <t>-40,14; 2,62</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-34,11; 2,3</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4,81; 66,15</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>12,62%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-5,74%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 11,51</t>
+          <t>-2,52; 12,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 6,48</t>
+          <t>-5,17; 8,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 32,1</t>
+          <t>-10,23; 7,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 16,83</t>
+          <t>-5,61; 37,95</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-11,3; 22,3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-21,91; 19,93</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18,39%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-23,16%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 6,67</t>
+          <t>-6,07; 7,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 10,02</t>
+          <t>-1,43; 9,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 23,05</t>
+          <t>-19,49; 1,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 46,48</t>
+          <t>-16,32; 26,29</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 44,87</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-51,47; 7,67</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,03%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 1,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 6,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,68; 6,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 22,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>-21,14%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-0,88%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,07%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 9,4</t>
+          <t>-13,16; 0,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 8,0</t>
+          <t>-7,63; 6,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 23,94</t>
+          <t>-8,35; 8,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 20,13</t>
+          <t>-42,2; 5,46</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-21,69; 23,95</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-22,31; 28,99</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-9,73%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 13,06</t>
+          <t>-7,15; 9,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 6,4</t>
+          <t>-7,62; 8,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 52,8</t>
+          <t>-13,08; 3,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,48; 30,26</t>
+          <t>-14,84; 23,4</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-15,36; 20,36</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-25,48; 8,26</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,91</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>24,13%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 19,13</t>
+          <t>-3,57; 11,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 4,41</t>
+          <t>-5,74; 6,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 160,2</t>
+          <t>-3,92; 11,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-48,79; 13,33</t>
+          <t>-8,98; 46,11</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-20,38; 30,22</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-17,67; 78,61</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 17,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 16,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 63,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 50,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-9,88</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>-9,46</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-21,58%</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>36,48%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-23,65%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-18,24%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 6,3</t>
+          <t>-5,58; 18,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 14,8</t>
+          <t>-24,82; 3,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-47,76; 20,24</t>
+          <t>-33,56; 11,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 99,95</t>
+          <t>-24,89; 155,15</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-51,01; 12,54</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-60,71; 55,24</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-12,96%</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>12,48%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>22,68%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 1,02</t>
+          <t>-11,02; 20,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 0,81</t>
+          <t>-8,72; 19,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 4,51</t>
+          <t>-10,44; 28,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 2,4</t>
+          <t>-27,09; 81,87</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-19,17; 57,73</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-20,78; 102,55</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>-11,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>-23,33%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>25,85%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-11,7%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 8,06</t>
+          <t>-28,37; 5,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 5,77</t>
+          <t>-5,39; 16,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 20,96</t>
+          <t>-18,01; 10,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 14,43</t>
+          <t>-49,99; 16,19</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-23,86; 108,85</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-55,14; 75,38</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1486,359 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 5,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 18,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 31,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-4,02</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-4,11</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-15,35%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-12,37%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-8,97; 0,22</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 0,64</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 9,13</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-30,84; 1,06</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-24,21; 2,01</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 32,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-4,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 8,47</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 5,92</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-7,77; 4,3</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 22,29</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 14,78</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-15,99; 10,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>12,19%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-6,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 5,56</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 6,9</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-8,8; 3,58</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 18,67</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-3,7; 31,79</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-30,32; 17,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
